--- a/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
+++ b/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nexture\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E300A63-0DE7-40B3-A677-897C204EECF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8599D5-96C3-4FA8-A265-DB83CE375300}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="288" yWindow="72" windowWidth="14664" windowHeight="4944" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>クラス関連</t>
     <rPh sb="3" eb="5">
@@ -833,6 +833,40 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>loginメソッドはUIに存在するList&lt;HumanVO&gt;と入力された情報を基にリスト内から一致する情報を探し、各タイプ別のVOをリターンする。</t>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ベツ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1359,6 +1393,9 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,23 +1405,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1395,77 +1438,68 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4011,24 +4045,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27"/>
@@ -4042,60 +4076,60 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
@@ -4106,1289 +4140,1289 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
-      <c r="AC52" s="36"/>
-      <c r="AD52" s="36"/>
-      <c r="AE52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
-      <c r="AC54" s="36"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="37"/>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
-      <c r="AB56" s="36"/>
-      <c r="AC56" s="36"/>
-      <c r="AD56" s="36"/>
-      <c r="AE56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
-      <c r="AC57" s="36"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
-      <c r="AC59" s="36"/>
-      <c r="AD59" s="36"/>
-      <c r="AE59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="36"/>
-      <c r="AD60" s="36"/>
-      <c r="AE60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
-      <c r="AB61" s="36"/>
-      <c r="AC61" s="36"/>
-      <c r="AD61" s="36"/>
-      <c r="AE61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="37"/>
+      <c r="AB61" s="37"/>
+      <c r="AC61" s="37"/>
+      <c r="AD61" s="37"/>
+      <c r="AE61" s="37"/>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
-      <c r="AC62" s="36"/>
-      <c r="AD62" s="36"/>
-      <c r="AE62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="37"/>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5410,8 +5444,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5427,20 +5461,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
@@ -5457,10 +5491,10 @@
       <c r="E6" s="5"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
         <v>1</v>
@@ -5471,10 +5505,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>3</v>
@@ -5485,50 +5519,50 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="10"/>
       <c r="E15" s="12" t="s">
         <v>26</v>
@@ -5539,8 +5573,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13" t="s">
         <v>24</v>
@@ -5551,8 +5585,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
         <v>25</v>
@@ -5563,8 +5597,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="10"/>
@@ -5573,8 +5607,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="10"/>
@@ -5586,8 +5620,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14"/>
       <c r="F20" s="10"/>
@@ -5599,10 +5633,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="10"/>
       <c r="E21" s="12" t="s">
         <v>37</v>
@@ -5613,8 +5647,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
         <v>47</v>
@@ -5623,8 +5657,8 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
         <v>43</v>
@@ -5633,8 +5667,8 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13" t="s">
         <v>44</v>
@@ -5643,18 +5677,18 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="34" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3" t="s">
         <v>46</v>
@@ -5663,8 +5697,8 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
         <v>45</v>
@@ -5673,12 +5707,12 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="10"/>
@@ -5687,18 +5721,18 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="47"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2" t="s">
         <v>18</v>
@@ -5721,12 +5755,12 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="10"/>
@@ -5735,10 +5769,10 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="47"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="10"/>
       <c r="G33" s="3"/>
     </row>
@@ -5753,8 +5787,8 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="10"/>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -5763,12 +5797,12 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="42"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="10"/>
@@ -5780,13 +5814,13 @@
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="47"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="10"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="10"/>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -5795,8 +5829,8 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -5805,12 +5839,12 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="42"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="10"/>
@@ -5822,15 +5856,15 @@
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="47"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="10"/>
       <c r="G41" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="10"/>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -5839,8 +5873,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="20"/>
       <c r="E43" s="21" t="s">
         <v>8</v>
@@ -5849,10 +5883,10 @@
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="10"/>
       <c r="E44" s="12" t="s">
         <v>31</v>
@@ -5863,8 +5897,8 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="10"/>
       <c r="E45" s="2" t="s">
         <v>7</v>
@@ -5875,8 +5909,8 @@
       </c>
     </row>
     <row r="46" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21" t="s">
         <v>8</v>
@@ -6120,6 +6154,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -6136,31 +6195,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6176,8 +6210,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:N16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6188,54 +6222,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
     </row>
     <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -6244,414 +6278,406 @@
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="68"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
     </row>
     <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
     </row>
     <row r="19" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="65"/>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
     </row>
     <row r="22" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="1:14" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
     </row>
     <row r="26" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
     </row>
     <row r="30" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
     </row>
     <row r="32" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
     </row>
     <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B33:N33"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:N22"/>
@@ -6660,12 +6686,22 @@
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="B26:N26"/>
     <mergeCell ref="B27:N27"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
+++ b/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nexture\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\Eclipse\NTPure\Academy\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8599D5-96C3-4FA8-A265-DB83CE375300}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11E9996-77C5-4331-BC5F-81D5D94E1393}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="288" yWindow="72" windowWidth="14664" windowHeight="4944" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>loginメソッドはUIに存在するList&lt;HumanVO&gt;と入力された情報を基にリスト内から一致する情報を探し、各タイプ別のVOをリターンする。</t>
+    <t>loginメソッドはUIに存在するList&lt;HumanVO&gt;と入力された情報をパラメータとし、リスト内から一致する情報を探し、各タイプ別のVOをリターンする。</t>
     <rPh sb="13" eb="15">
       <t>ソンザイ</t>
     </rPh>
@@ -847,25 +847,22 @@
     <rPh sb="36" eb="38">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="39" eb="40">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="44" eb="45">
+    <rPh sb="50" eb="51">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="47" eb="49">
+    <rPh sb="53" eb="55">
       <t>イッチ</t>
     </rPh>
-    <rPh sb="51" eb="53">
+    <rPh sb="57" eb="59">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="60" eb="61">
       <t>サガ</t>
     </rPh>
-    <rPh sb="57" eb="58">
+    <rPh sb="63" eb="64">
       <t>カク</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="67" eb="68">
       <t>ベツ</t>
     </rPh>
     <phoneticPr fontId="11"/>
@@ -1405,6 +1402,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,10 +1420,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1429,14 +1435,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1457,48 +1496,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5461,20 +5458,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
@@ -5491,10 +5488,10 @@
       <c r="E6" s="5"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
         <v>1</v>
@@ -5505,10 +5502,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>3</v>
@@ -5519,50 +5516,50 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="10"/>
       <c r="E15" s="12" t="s">
         <v>26</v>
@@ -5573,8 +5570,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13" t="s">
         <v>24</v>
@@ -5585,8 +5582,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
         <v>25</v>
@@ -5597,8 +5594,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="10"/>
@@ -5607,8 +5604,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="10"/>
@@ -5620,8 +5617,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14"/>
       <c r="F20" s="10"/>
@@ -5633,10 +5630,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="10"/>
       <c r="E21" s="12" t="s">
         <v>37</v>
@@ -5647,8 +5644,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
         <v>47</v>
@@ -5657,8 +5654,8 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
         <v>43</v>
@@ -5667,8 +5664,8 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13" t="s">
         <v>44</v>
@@ -5677,8 +5674,8 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="10"/>
       <c r="E25" s="34" t="s">
         <v>61</v>
@@ -5687,8 +5684,8 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3" t="s">
         <v>46</v>
@@ -5697,8 +5694,8 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
         <v>45</v>
@@ -5707,12 +5704,12 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="47" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="10"/>
@@ -5721,18 +5718,18 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="45"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2" t="s">
         <v>18</v>
@@ -5755,12 +5752,12 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="47" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="10"/>
@@ -5769,10 +5766,10 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="45"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="10"/>
       <c r="G33" s="3"/>
     </row>
@@ -5787,8 +5784,8 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="10"/>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -5797,12 +5794,12 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="47" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="10"/>
@@ -5814,13 +5811,13 @@
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="45"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="10"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="10"/>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -5829,8 +5826,8 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -5839,12 +5836,12 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="41"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="47" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="10"/>
@@ -5856,15 +5853,15 @@
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="45"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="10"/>
       <c r="G41" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="10"/>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -5873,8 +5870,8 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="20"/>
       <c r="E43" s="21" t="s">
         <v>8</v>
@@ -5883,10 +5880,10 @@
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="41"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="10"/>
       <c r="E44" s="12" t="s">
         <v>31</v>
@@ -5897,8 +5894,8 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="10"/>
       <c r="E45" s="2" t="s">
         <v>7</v>
@@ -5909,8 +5906,8 @@
       </c>
     </row>
     <row r="46" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21" t="s">
         <v>8</v>
@@ -6154,31 +6151,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -6195,6 +6167,31 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6211,7 +6208,7 @@
   <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:N17"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6222,54 +6219,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
       <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
     </row>
     <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -6278,406 +6275,416 @@
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="65"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="56"/>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
     </row>
     <row r="22" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:14" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:N19"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:N22"/>
@@ -6686,22 +6693,12 @@
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="B26:N26"/>
     <mergeCell ref="B27:N27"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B33:N33"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
+++ b/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\Eclipse\NTPure\Academy\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523144DE-3041-4A2C-88B8-DE92F674970A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B7498-3413-4698-AB24-95A607F1C46A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="288" yWindow="72" windowWidth="14664" windowHeight="4944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="システム構成" sheetId="3" r:id="rId2"/>
     <sheet name="要件定義" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>クラス関連</t>
     <rPh sb="3" eb="5">
@@ -806,31 +806,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>login時は利用者の名前、パスワード、電話番号の入力を受けログインする。</t>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>int personnel;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -888,12 +863,38 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>login時は利用者のUniqNumとパスワードの入力を受けログインする。</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1．スタッフ　2．教授　3．生徒</t>
+    <rPh sb="9" eb="11">
+      <t>きょうじゅ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>せいと</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,6 +1425,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,6 +1449,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1460,83 +1476,68 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4076,99 +4077,99 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="28.2">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:10" ht="28.2" x14ac:dyDescent="0.2">
+      <c r="B2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H9" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="2:31">
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="2:31">
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="2:31">
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="22" spans="2:31">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
@@ -4176,1290 +4177,1290 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:31">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-    </row>
-    <row r="24" spans="2:31">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-    </row>
-    <row r="25" spans="2:31">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-    </row>
-    <row r="26" spans="2:31">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-    </row>
-    <row r="27" spans="2:31">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-    </row>
-    <row r="28" spans="2:31">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-    </row>
-    <row r="29" spans="2:31">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-    </row>
-    <row r="30" spans="2:31">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-    </row>
-    <row r="31" spans="2:31">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-    </row>
-    <row r="32" spans="2:31">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-    </row>
-    <row r="33" spans="2:31">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-    </row>
-    <row r="34" spans="2:31">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-    </row>
-    <row r="35" spans="2:31">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-    </row>
-    <row r="36" spans="2:31">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-    </row>
-    <row r="37" spans="2:31">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="38"/>
-    </row>
-    <row r="38" spans="2:31">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-    </row>
-    <row r="39" spans="2:31">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="38"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="38"/>
-    </row>
-    <row r="40" spans="2:31">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-    </row>
-    <row r="41" spans="2:31">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="38"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="38"/>
-    </row>
-    <row r="42" spans="2:31">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-    </row>
-    <row r="43" spans="2:31">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-    </row>
-    <row r="44" spans="2:31">
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-    </row>
-    <row r="45" spans="2:31">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-    </row>
-    <row r="46" spans="2:31">
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="38"/>
-    </row>
-    <row r="47" spans="2:31">
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
-      <c r="AE47" s="38"/>
-    </row>
-    <row r="48" spans="2:31">
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-    </row>
-    <row r="49" spans="2:31">
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="38"/>
-      <c r="AE49" s="38"/>
-    </row>
-    <row r="50" spans="2:31">
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="38"/>
-    </row>
-    <row r="51" spans="2:31">
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="38"/>
-      <c r="AE51" s="38"/>
-    </row>
-    <row r="52" spans="2:31">
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="38"/>
-      <c r="AB52" s="38"/>
-      <c r="AC52" s="38"/>
-      <c r="AD52" s="38"/>
-      <c r="AE52" s="38"/>
-    </row>
-    <row r="53" spans="2:31">
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
-      <c r="AB53" s="38"/>
-      <c r="AC53" s="38"/>
-      <c r="AD53" s="38"/>
-      <c r="AE53" s="38"/>
-    </row>
-    <row r="54" spans="2:31">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
-      <c r="AB54" s="38"/>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="38"/>
-      <c r="AE54" s="38"/>
-    </row>
-    <row r="55" spans="2:31">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="38"/>
-      <c r="AD55" s="38"/>
-      <c r="AE55" s="38"/>
-    </row>
-    <row r="56" spans="2:31">
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="38"/>
-    </row>
-    <row r="57" spans="2:31">
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
-      <c r="AB57" s="38"/>
-      <c r="AC57" s="38"/>
-      <c r="AD57" s="38"/>
-      <c r="AE57" s="38"/>
-    </row>
-    <row r="58" spans="2:31">
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
-      <c r="AA58" s="38"/>
-      <c r="AB58" s="38"/>
-      <c r="AC58" s="38"/>
-      <c r="AD58" s="38"/>
-      <c r="AE58" s="38"/>
-    </row>
-    <row r="59" spans="2:31">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38"/>
-      <c r="AE59" s="38"/>
-    </row>
-    <row r="60" spans="2:31">
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38"/>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="38"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="38"/>
-      <c r="AE60" s="38"/>
-    </row>
-    <row r="61" spans="2:31">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
-      <c r="AA61" s="38"/>
-      <c r="AB61" s="38"/>
-      <c r="AC61" s="38"/>
-      <c r="AD61" s="38"/>
-      <c r="AE61" s="38"/>
-    </row>
-    <row r="62" spans="2:31">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="38"/>
-      <c r="AC62" s="38"/>
-      <c r="AD62" s="38"/>
-      <c r="AE62" s="38"/>
-    </row>
-    <row r="63" spans="2:31">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-    </row>
-    <row r="64" spans="2:31">
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="41"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="41"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="41"/>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="41"/>
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="41"/>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="41"/>
+      <c r="AB50" s="41"/>
+      <c r="AC50" s="41"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="41"/>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41"/>
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="41"/>
+      <c r="AC52" s="41"/>
+      <c r="AD52" s="41"/>
+      <c r="AE52" s="41"/>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41"/>
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="41"/>
+      <c r="AB56" s="41"/>
+      <c r="AC56" s="41"/>
+      <c r="AD56" s="41"/>
+      <c r="AE56" s="41"/>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="41"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="41"/>
+      <c r="AA57" s="41"/>
+      <c r="AB57" s="41"/>
+      <c r="AC57" s="41"/>
+      <c r="AD57" s="41"/>
+      <c r="AE57" s="41"/>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="41"/>
+      <c r="X58" s="41"/>
+      <c r="Y58" s="41"/>
+      <c r="Z58" s="41"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="41"/>
+      <c r="AC58" s="41"/>
+      <c r="AD58" s="41"/>
+      <c r="AE58" s="41"/>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="41"/>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="41"/>
+      <c r="AA59" s="41"/>
+      <c r="AB59" s="41"/>
+      <c r="AC59" s="41"/>
+      <c r="AD59" s="41"/>
+      <c r="AE59" s="41"/>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="41"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="41"/>
+      <c r="AD60" s="41"/>
+      <c r="AE60" s="41"/>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="41"/>
+      <c r="W61" s="41"/>
+      <c r="X61" s="41"/>
+      <c r="Y61" s="41"/>
+      <c r="Z61" s="41"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="41"/>
+      <c r="AC61" s="41"/>
+      <c r="AD61" s="41"/>
+      <c r="AE61" s="41"/>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="41"/>
+      <c r="W62" s="41"/>
+      <c r="X62" s="41"/>
+      <c r="Y62" s="41"/>
+      <c r="Z62" s="41"/>
+      <c r="AA62" s="41"/>
+      <c r="AB62" s="41"/>
+      <c r="AC62" s="41"/>
+      <c r="AD62" s="41"/>
+      <c r="AE62" s="41"/>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5479,13 +5480,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:G77"/>
+  <dimension ref="B3:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" style="4" customWidth="1"/>
@@ -5497,29 +5498,29 @@
     <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="21">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="2:7" ht="21">
-      <c r="B4" s="45" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="B4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-    </row>
-    <row r="5" spans="2:7" ht="21">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:7" ht="21">
+    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -5527,11 +5528,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="8" spans="2:7" ht="21">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
         <v>1</v>
@@ -5541,11 +5542,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>3</v>
@@ -5555,51 +5556,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+    <row r="10" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+    <row r="11" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
+    <row r="12" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
+    <row r="13" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+    <row r="14" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="10"/>
       <c r="E15" s="12" t="s">
         <v>23</v>
@@ -5609,9 +5610,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+    <row r="16" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13" t="s">
         <v>21</v>
@@ -5621,9 +5622,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+    <row r="17" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
         <v>22</v>
@@ -5633,9 +5634,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+    <row r="18" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="10"/>
@@ -5643,9 +5644,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+    <row r="19" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="10"/>
@@ -5653,9 +5654,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+    <row r="20" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14"/>
       <c r="F20" s="10"/>
@@ -5663,11 +5664,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="10"/>
       <c r="E21" s="12" t="s">
         <v>34</v>
@@ -5677,61 +5678,61 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+    <row r="22" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13"/>
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+    <row r="23" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+    <row r="24" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+    <row r="25" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="10"/>
       <c r="E25" s="34"/>
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+    <row r="26" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+    <row r="27" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B28" s="43" t="s">
+    <row r="28" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="44" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="10"/>
@@ -5739,43 +5740,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="19.2" customHeight="1">
+    <row r="29" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="49"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="10"/>
       <c r="G29" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="19.2" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="10"/>
       <c r="E30" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+        <v>69</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="73" t="s">
-        <v>69</v>
+      <c r="E31" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
+    <row r="32" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="10"/>
       <c r="E32" s="2"/>
       <c r="F32" s="10"/>
@@ -5783,23 +5787,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="19.2" customHeight="1">
+    <row r="33" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="10"/>
       <c r="E33" s="3"/>
       <c r="F33" s="10"/>
       <c r="G33" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B34" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="44"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="44" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="10"/>
@@ -5807,15 +5811,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
+    <row r="35" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="49"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="10"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" ht="19.2" customHeight="1">
+    <row r="36" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="10"/>
@@ -5825,9 +5829,9 @@
       <c r="F36" s="10"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+    <row r="37" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -5835,13 +5839,13 @@
       <c r="F37" s="10"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" ht="19.2" customHeight="1">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="44"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="44" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="10"/>
@@ -5849,17 +5853,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="19.2" customHeight="1">
+    <row r="39" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="49"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="10"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="2:7" ht="25.2">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
+    <row r="40" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -5867,9 +5871,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" ht="25.2">
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
+    <row r="41" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="10"/>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -5877,13 +5881,13 @@
       <c r="F41" s="10"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7" ht="25.2">
-      <c r="B42" s="43" t="s">
+    <row r="42" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B42" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="10"/>
@@ -5891,17 +5895,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="19.2">
+    <row r="43" spans="2:7" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="49"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="10"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="2:7" ht="21" customHeight="1">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+    <row r="44" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="10"/>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -5909,9 +5913,9 @@
       <c r="F44" s="10"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" ht="21" customHeight="1">
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
+    <row r="45" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21" t="s">
         <v>8</v>
@@ -5919,11 +5923,11 @@
       <c r="F45" s="20"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="2:7" ht="21" customHeight="1">
-      <c r="B46" s="43" t="s">
+    <row r="46" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="10"/>
       <c r="E46" s="12" t="s">
         <v>28</v>
@@ -5933,9 +5937,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="21" customHeight="1">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
+    <row r="47" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="10"/>
       <c r="E47" s="2" t="s">
         <v>7</v>
@@ -5945,9 +5949,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="21" customHeight="1">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
+    <row r="48" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="10"/>
       <c r="E48" s="2" t="s">
         <v>8</v>
@@ -5957,26 +5961,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="21" customHeight="1">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+    <row r="49" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="21" customHeight="1">
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="20"/>
       <c r="G50" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="21" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -5984,7 +5988,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="2:7" ht="21" customHeight="1">
+    <row r="52" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -5992,7 +5996,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="2:7" ht="21" customHeight="1">
+    <row r="53" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -6000,7 +6004,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="2:7" ht="21" customHeight="1">
+    <row r="54" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -6008,7 +6012,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="2:7" ht="21" customHeight="1">
+    <row r="55" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -6016,7 +6020,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="2:7" ht="21" customHeight="1">
+    <row r="56" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -6024,7 +6028,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="2:7" ht="21" customHeight="1">
+    <row r="57" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -6032,7 +6036,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="2:7" ht="13.2" customHeight="1">
+    <row r="58" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -6040,7 +6044,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="2:7" ht="13.2" customHeight="1">
+    <row r="59" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -6048,7 +6052,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="2:7" ht="13.2" customHeight="1">
+    <row r="60" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -6056,7 +6060,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="2:7" ht="13.2" customHeight="1">
+    <row r="61" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -6064,7 +6068,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="2:7" ht="13.2" customHeight="1">
+    <row r="62" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -6072,7 +6076,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="2:7" ht="13.2" customHeight="1">
+    <row r="63" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -6080,7 +6084,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="2:7" ht="13.2" customHeight="1">
+    <row r="64" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -6088,7 +6092,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="2:7" ht="13.2" customHeight="1">
+    <row r="65" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -6096,7 +6100,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="2:7" ht="13.2" customHeight="1">
+    <row r="66" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -6104,7 +6108,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="2:7" ht="13.2" customHeight="1">
+    <row r="67" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -6112,7 +6116,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="2:7" ht="13.2" customHeight="1">
+    <row r="68" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -6120,7 +6124,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="2:7" ht="13.2" customHeight="1">
+    <row r="69" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -6128,7 +6132,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="2:7" ht="13.2" customHeight="1">
+    <row r="70" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -6136,7 +6140,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="2:7" ht="13.2" customHeight="1">
+    <row r="71" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -6144,7 +6148,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="2:7" ht="13.2" customHeight="1">
+    <row r="72" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -6152,7 +6156,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="2:7" ht="13.2" customHeight="1">
+    <row r="73" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -6160,7 +6164,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="2:7" ht="13.2" customHeight="1">
+    <row r="74" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -6168,7 +6172,7 @@
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
     </row>
-    <row r="75" spans="2:7" ht="13.2" customHeight="1">
+    <row r="75" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -6176,7 +6180,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="2:7" ht="13.2" customHeight="1">
+    <row r="76" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -6184,7 +6188,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
     </row>
-    <row r="77" spans="2:7" ht="13.2" customHeight="1">
+    <row r="77" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -6194,24 +6198,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -6225,18 +6221,26 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6253,482 +6257,472 @@
       <selection activeCell="B18" sqref="B18:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="14" max="14" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21">
-      <c r="B2" s="65" t="s">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="B2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-    </row>
-    <row r="5" spans="1:14" ht="21">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.2">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
     </row>
-    <row r="7" spans="1:14" ht="21">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.2">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="70"/>
-    </row>
-    <row r="10" spans="1:14" ht="21">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-    </row>
-    <row r="11" spans="1:14" ht="37.200000000000003" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="52" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+    </row>
+    <row r="11" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="55" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="62" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-    </row>
-    <row r="15" spans="1:14" ht="21">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-    </row>
-    <row r="16" spans="1:14" ht="35.4" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+    </row>
+    <row r="16" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="71"/>
+      <c r="B16" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-    </row>
-    <row r="17" spans="1:14" ht="22.8" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+    </row>
+    <row r="17" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="71"/>
+      <c r="B17" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-    </row>
-    <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-    </row>
-    <row r="19" spans="1:14" ht="35.4" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-    </row>
-    <row r="21" spans="1:14" ht="21">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+    </row>
+    <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="71"/>
+      <c r="B18" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+    </row>
+    <row r="19" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="71"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+    </row>
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-    </row>
-    <row r="22" spans="1:14" ht="37.799999999999997" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-    </row>
-    <row r="24" spans="1:14" ht="48.6" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-    </row>
-    <row r="26" spans="1:14" ht="46.8" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-    </row>
-    <row r="27" spans="1:14" ht="72.599999999999994" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-    </row>
-    <row r="29" spans="1:14" ht="21">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+    </row>
+    <row r="22" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="71"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="71"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+    </row>
+    <row r="24" spans="1:14" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="71"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="71"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+    </row>
+    <row r="26" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="71"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+    </row>
+    <row r="27" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="71"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+    </row>
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-    </row>
-    <row r="30" spans="1:14" ht="34.200000000000003" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-    </row>
-    <row r="31" spans="1:14" ht="43.2" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-    </row>
-    <row r="32" spans="1:14" ht="35.4" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-    </row>
-    <row r="33" spans="1:14" ht="33" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="71"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+    </row>
+    <row r="31" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+    </row>
+    <row r="32" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+    </row>
+    <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="71"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B33:N33"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:N22"/>
@@ -6737,12 +6731,22 @@
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="B26:N26"/>
     <mergeCell ref="B27:N27"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
+++ b/Documents/アカデミー管理システム作業指示書＿OJT用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\Eclipse\NTPure\Academy\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B7498-3413-4698-AB24-95A607F1C46A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF4A7F6-1E20-43C9-84B8-8517F566D5D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="288" yWindow="72" windowWidth="14664" windowHeight="4944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,28 +626,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>Professorのmanagerは自分が担当する講義のリストをコンソールに出力する機能が必要。</t>
-    <rPh sb="18" eb="20">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウギ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>List&lt;HumanVO&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -663,34 +641,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Staffは講義を登録する機能、講義を登録するときはすでに存在する教授しか登録できなくする。</t>
-    <rPh sb="6" eb="8">
-      <t>コウギ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウギ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キョウジュ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>学生は登録されている講義のリストを見る機能が必要</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
@@ -807,10 +757,6 @@
   </si>
   <si>
     <t>int personnel;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int ok;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -887,6 +833,70 @@
     <rPh sb="14" eb="16">
       <t>せいと</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staffは講義を承認する機能</t>
+    <rPh sb="6" eb="8">
+      <t>コウギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Professorのmanagerは自分が担当する講義のリストをコンソールに出力する機能と講義を登録する機能
+講義を登録するとき教授の固有番号が登録される。</t>
+    <rPh sb="18" eb="20">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウギ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウギ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キョウジュ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>int ok;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1434,6 +1444,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,32 +1465,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1497,47 +1555,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4083,24 +4102,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.2" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27"/>
@@ -4114,60 +4133,60 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
@@ -4178,1289 +4197,1289 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="41"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="41"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="41"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="41"/>
-      <c r="AC44" s="41"/>
-      <c r="AD44" s="41"/>
-      <c r="AE44" s="41"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="43"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="43"/>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="41"/>
-      <c r="AD46" s="41"/>
-      <c r="AE46" s="41"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="43"/>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="43"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="43"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43"/>
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43"/>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="43"/>
+      <c r="AB49" s="43"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="43"/>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="41"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="41"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="43"/>
+      <c r="AB50" s="43"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="43"/>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="41"/>
-      <c r="AD52" s="41"/>
-      <c r="AE52" s="41"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="43"/>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41"/>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="43"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="43"/>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="41"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="43"/>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41"/>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41"/>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="43"/>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="41"/>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="41"/>
-      <c r="AC56" s="41"/>
-      <c r="AD56" s="41"/>
-      <c r="AE56" s="41"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="43"/>
+      <c r="AB56" s="43"/>
+      <c r="AC56" s="43"/>
+      <c r="AD56" s="43"/>
+      <c r="AE56" s="43"/>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="41"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="43"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="43"/>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="41"/>
-      <c r="W58" s="41"/>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="41"/>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="41"/>
-      <c r="AC58" s="41"/>
-      <c r="AD58" s="41"/>
-      <c r="AE58" s="41"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
+      <c r="AB58" s="43"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="43"/>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="41"/>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="41"/>
-      <c r="AD59" s="41"/>
-      <c r="AE59" s="41"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="43"/>
+      <c r="AC59" s="43"/>
+      <c r="AD59" s="43"/>
+      <c r="AE59" s="43"/>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="41"/>
-      <c r="AD60" s="41"/>
-      <c r="AE60" s="41"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="43"/>
+      <c r="AB60" s="43"/>
+      <c r="AC60" s="43"/>
+      <c r="AD60" s="43"/>
+      <c r="AE60" s="43"/>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="41"/>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="41"/>
-      <c r="AC61" s="41"/>
-      <c r="AD61" s="41"/>
-      <c r="AE61" s="41"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="43"/>
+      <c r="AB61" s="43"/>
+      <c r="AC61" s="43"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="43"/>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41"/>
-      <c r="Z62" s="41"/>
-      <c r="AA62" s="41"/>
-      <c r="AB62" s="41"/>
-      <c r="AC62" s="41"/>
-      <c r="AD62" s="41"/>
-      <c r="AE62" s="41"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="43"/>
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="43"/>
+      <c r="AD62" s="43"/>
+      <c r="AE62" s="43"/>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5480,10 +5499,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:H77"/>
+  <dimension ref="B3:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5557,40 +5576,40 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
@@ -5611,8 +5630,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13" t="s">
         <v>21</v>
@@ -5623,8 +5642,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
         <v>22</v>
@@ -5635,8 +5654,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="10"/>
@@ -5645,13 +5664,13 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -5661,7 +5680,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="10"/>
       <c r="G20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -5675,44 +5694,44 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13"/>
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="10"/>
       <c r="E25" s="34"/>
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3"/>
       <c r="F26" s="10"/>
@@ -5732,7 +5751,7 @@
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="53" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="10"/>
@@ -5744,10 +5763,10 @@
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="45"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="10"/>
       <c r="G29" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -5755,22 +5774,22 @@
       <c r="C30" s="23"/>
       <c r="D30" s="10"/>
       <c r="E30" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="10"/>
       <c r="E31" s="38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="3" t="s">
@@ -5778,8 +5797,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="10"/>
       <c r="E32" s="2"/>
       <c r="F32" s="10"/>
@@ -5794,7 +5813,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="10"/>
       <c r="G33" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -5803,7 +5822,7 @@
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="53" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="10"/>
@@ -5812,10 +5831,10 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="45"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="10"/>
       <c r="G35" s="3"/>
     </row>
@@ -5830,8 +5849,8 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -5845,7 +5864,7 @@
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="53" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="10"/>
@@ -5857,13 +5876,13 @@
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="45"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="10"/>
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -5872,8 +5891,8 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="10"/>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -5887,7 +5906,7 @@
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="53" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="10"/>
@@ -5899,13 +5918,13 @@
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="45"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="10"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="10"/>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -5938,8 +5957,8 @@
       </c>
     </row>
     <row r="47" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="10"/>
       <c r="E47" s="2" t="s">
         <v>7</v>
@@ -5950,8 +5969,8 @@
       </c>
     </row>
     <row r="48" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="10"/>
       <c r="E48" s="2" t="s">
         <v>8</v>
@@ -5962,31 +5981,30 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
       <c r="E49" s="2"/>
       <c r="F49" s="37"/>
       <c r="G49" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21" t="s">
-        <v>64</v>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="18"/>
@@ -6036,7 +6054,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -6189,39 +6207,28 @@
       <c r="G76" s="18"/>
     </row>
     <row r="77" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="2:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="E42:E43"/>
@@ -6237,10 +6244,29 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6253,8 +6279,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:N18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6265,54 +6291,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
     </row>
     <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -6321,82 +6347,82 @@
       <c r="A7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="59"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="64" t="s">
-        <v>58</v>
+      <c r="A12" s="64"/>
+      <c r="B12" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
@@ -6412,317 +6438,327 @@
       <c r="N12" s="66"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
+        <v>57</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
     </row>
     <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+    </row>
+    <row r="16" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+    </row>
+    <row r="17" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-    </row>
-    <row r="16" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-    </row>
-    <row r="17" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
     </row>
     <row r="19" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="1:14" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
     </row>
     <row r="26" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
     </row>
     <row r="27" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
     </row>
     <row r="30" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
     </row>
     <row r="31" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
     </row>
     <row r="32" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
     </row>
     <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:N19"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:N22"/>
@@ -6731,22 +6767,12 @@
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="B26:N26"/>
     <mergeCell ref="B27:N27"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B33:N33"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
